--- a/outputs-r202/g__UBA4334.xlsx
+++ b/outputs-r202/g__UBA4334.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -609,6 +614,11 @@
           <t>s__UBA4334 sp900316975</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316975(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -678,6 +688,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -747,6 +762,11 @@
           <t>s__UBA4334 sp900316975</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316975</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -816,6 +836,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -885,6 +910,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -954,6 +984,11 @@
           <t>s__UBA4334 sp900318775</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900318775</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1023,6 +1058,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1092,6 +1132,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1161,6 +1206,11 @@
           <t>s__UBA4334 sp002353575</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp002353575(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1230,6 +1280,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1299,6 +1354,11 @@
           <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1364,6 +1424,11 @@
         <v>0.9999919719150641</v>
       </c>
       <c r="U13" t="inlineStr">
+        <is>
+          <t>s__UBA4334 sp900316505</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>s__UBA4334 sp900316505</t>
         </is>

--- a/outputs-r202/g__UBA4334.xlsx
+++ b/outputs-r202/g__UBA4334.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,287 +549,287 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG204.fasta</t>
+          <t>RUG112.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550328</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550328</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550328</v>
       </c>
       <c r="E2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550323</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.1131610481583184</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550326</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.09192428683984534</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550323</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9999999943490654</v>
+        <v>0.04968013124550323</v>
       </c>
       <c r="K2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550322</v>
       </c>
       <c r="L2" t="n">
-        <v>5.650579368643346e-09</v>
+        <v>0.04971269630450289</v>
       </c>
       <c r="M2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550323</v>
       </c>
       <c r="N2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550322</v>
       </c>
       <c r="O2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013126028788</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550322</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550315</v>
       </c>
       <c r="R2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550315</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22044604855318e-14</v>
+        <v>0.04968013124550322</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999999943490654</v>
+        <v>0.1131610481583184</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp002363115</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp002363115(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG242.fasta</t>
+          <t>RUG204.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>0.9999999943490654</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999999995736</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>7.125774807879151e-14</v>
+        <v>5.650579368643346e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220446049250217e-14</v>
+        <v>2.22044604855318e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9999999999995736</v>
+        <v>0.9999999943490654</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316975</t>
+          <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316975</t>
+          <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG317.fasta</t>
+          <t>RUG242.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9999999971773956</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>0.9999999999995736</v>
       </c>
       <c r="L4" t="n">
-        <v>2.822249023564469e-09</v>
+        <v>7.125774807879151e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220446048902078e-14</v>
+        <v>2.220446049250217e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9999999971773956</v>
+        <v>0.9999999999995736</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp900316975</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp900316975</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG397.fasta</t>
+          <t>RUG317.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9999999985846202</v>
+        <v>0.9999999971773956</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.415024475273162e-09</v>
+        <v>2.822249023564469e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220446049075671e-14</v>
+        <v>2.220446048902078e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9999999985846202</v>
+        <v>0.9999999971773956</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -845,213 +845,213 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG418.fasta</t>
+          <t>RUG397.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>0.9999999985846202</v>
       </c>
       <c r="K6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999973015614448</v>
+        <v>1.415024475273162e-09</v>
       </c>
       <c r="M6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.698438199593267e-06</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22226784502886e-14</v>
+        <v>2.220446049075671e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9999973015614448</v>
+        <v>0.9999999985846202</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900318775</t>
+          <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900318775</t>
+          <t>s__UBA4334 sp900316505</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG586.fasta</t>
+          <t>RUG418.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0.999999999562395</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>4.372495799556361e-10</v>
+        <v>0.9999973015614448</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.698438199593267e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>2.220446049196287e-14</v>
+        <v>2.22226784502886e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>0.999999999562395</v>
+        <v>0.9999973015614448</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp900318775</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900316505</t>
+          <t>s__UBA4334 sp900318775</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG620.fasta</t>
+          <t>RUG586.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999992103539</v>
+        <v>0.999999999562395</v>
       </c>
       <c r="K8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>7.892907638074175e-10</v>
+        <v>4.372495799556361e-10</v>
       </c>
       <c r="M8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22044604915286e-14</v>
+        <v>2.220446049196287e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9999999992103539</v>
+        <v>0.999999999562395</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1067,65 +1067,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG711.fasta</t>
+          <t>RUG620.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999994815657</v>
+        <v>0.9999999992103539</v>
       </c>
       <c r="K9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>5.180789969314458e-10</v>
+        <v>7.892907638074175e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="R9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>2.220446049186316e-14</v>
+        <v>2.22044604915286e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9999999994815657</v>
+        <v>0.9999999992103539</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1141,65 +1141,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG749.fasta</t>
+          <t>RUG711.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>0.999999999039201</v>
+        <v>0.9999999994815657</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>9.604437628623653e-10</v>
+        <v>5.180789969314458e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220446049131747e-14</v>
+        <v>2.220446049186316e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>0.999999999039201</v>
+        <v>0.9999999994815657</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1215,65 +1215,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG786.fasta</t>
+          <t>RUG749.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999996762208</v>
+        <v>0.999999999039201</v>
       </c>
       <c r="K11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>3.234239409843533e-10</v>
+        <v>9.604437628623653e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="R11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>2.220446049210328e-14</v>
+        <v>2.220446049131747e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9999999996762208</v>
+        <v>0.999999999039201</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1289,65 +1289,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG749.fasta</t>
+          <t>RUG786.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9999996004787025</v>
+        <v>0.9999999996762208</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>3.995209422176383e-07</v>
+        <v>3.234239409843533e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="R12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220445999966133e-14</v>
+        <v>2.220446049210328e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9999996004787025</v>
+        <v>0.9999999996762208</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1355,80 +1355,6 @@
         </is>
       </c>
       <c r="V12" t="inlineStr">
-        <is>
-          <t>s__UBA4334 sp900316505</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG786.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9999919719150641</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.028084580752545e-06</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.220445058944319e-14</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.9999919719150641</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>s__UBA4334 sp900316505</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
         <is>
           <t>s__UBA4334 sp900316505</t>
         </is>
